--- a/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
+++ b/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\FoTCAMRBtPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/elec/fotcamrbtpf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07399F2B-1D92-6247-841A-4D2A392A8D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
     <sheet name="Canada Flexibility Shares" sheetId="3" r:id="rId3"/>
     <sheet name="FoTCAMRBtPF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -287,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +371,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -376,11 +386,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,21 +668,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="10">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -679,62 +693,62 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="6">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -746,43 +760,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="21.33203125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -895,7 +909,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1008,7 +1022,7 @@
         <v>412972.3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>69383.25</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>15337.38</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -1347,7 +1361,7 @@
         <v>12982.23</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
@@ -1460,7 +1474,7 @@
         <v>87001.64</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -1573,7 +1587,7 @@
         <v>4140.8100000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -1686,7 +1700,7 @@
         <v>128047.6</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1799,12 +1813,12 @@
         <v>2003.04</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -2030,7 +2044,7 @@
         <v>42768.25</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -2143,7 +2157,7 @@
         <v>185.58</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -2256,7 +2270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -2369,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -2482,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2595,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
@@ -2708,7 +2722,7 @@
         <v>478.28</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -2821,12 +2835,12 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
@@ -2939,7 +2953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -3052,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
@@ -3165,7 +3179,7 @@
         <v>1127.44</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -3278,7 +3292,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -3391,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -3504,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -3617,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -3730,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -3843,12 +3857,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -3961,7 +3975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -4074,7 +4088,7 @@
         <v>1318.03</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -4187,7 +4201,7 @@
         <v>1351.35</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -4300,7 +4314,7 @@
         <v>188.86</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -4413,7 +4427,7 @@
         <v>108.38</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -4526,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -4639,7 +4653,7 @@
         <v>826.93</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -4752,7 +4766,7 @@
         <v>4477.63</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -4865,12 +4879,12 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
@@ -4983,7 +4997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
@@ -5096,7 +5110,7 @@
         <v>2612.42</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -5209,7 +5223,7 @@
         <v>1115.55</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -5322,7 +5336,7 @@
         <v>604.14</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
@@ -5435,7 +5449,7 @@
         <v>262.8</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
@@ -5548,7 +5562,7 @@
         <v>4817.12</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -5661,7 +5675,7 @@
         <v>49.46</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -5774,7 +5788,7 @@
         <v>178.66</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
@@ -5887,12 +5901,12 @@
         <v>102.78</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -6005,7 +6019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
@@ -6118,7 +6132,7 @@
         <v>205743.2</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>51</v>
       </c>
@@ -6231,7 +6245,7 @@
         <v>21133.37</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
@@ -6344,7 +6358,7 @@
         <v>2462.33</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>53</v>
       </c>
@@ -6457,7 +6471,7 @@
         <v>2719.98</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>54</v>
       </c>
@@ -6570,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>55</v>
       </c>
@@ -6683,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
@@ -6796,7 +6810,7 @@
         <v>100.25</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>57</v>
       </c>
@@ -6909,12 +6923,12 @@
         <v>148.58000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>13</v>
       </c>
@@ -7027,7 +7041,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>50</v>
       </c>
@@ -7140,7 +7154,7 @@
         <v>38152.879999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>51</v>
       </c>
@@ -7253,7 +7267,7 @@
         <v>16297.6</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>52</v>
       </c>
@@ -7366,7 +7380,7 @@
         <v>1127.76</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>53</v>
       </c>
@@ -7479,7 +7493,7 @@
         <v>7617.82</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>54</v>
       </c>
@@ -7592,7 +7606,7 @@
         <v>82184.52</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>55</v>
       </c>
@@ -7705,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>56</v>
       </c>
@@ -7818,7 +7832,7 @@
         <v>37745.24</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>57</v>
       </c>
@@ -7931,12 +7945,12 @@
         <v>991.66</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>13</v>
       </c>
@@ -8049,7 +8063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>50</v>
       </c>
@@ -8162,7 +8176,7 @@
         <v>46266.96</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>51</v>
       </c>
@@ -8275,7 +8289,7 @@
         <v>1949.99</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>52</v>
       </c>
@@ -8388,7 +8402,7 @@
         <v>78.290000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>53</v>
       </c>
@@ -8501,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>54</v>
       </c>
@@ -8614,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>55</v>
       </c>
@@ -8727,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>56</v>
       </c>
@@ -8840,7 +8854,7 @@
         <v>37.450000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>57</v>
       </c>
@@ -8953,12 +8967,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>13</v>
       </c>
@@ -9071,7 +9085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>50</v>
       </c>
@@ -9184,7 +9198,7 @@
         <v>3134.94</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>51</v>
       </c>
@@ -9297,7 +9311,7 @@
         <v>19312.14</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>52</v>
       </c>
@@ -9410,7 +9424,7 @@
         <v>3126.31</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>53</v>
       </c>
@@ -9523,7 +9537,7 @@
         <v>1998.33</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>54</v>
       </c>
@@ -9636,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>55</v>
       </c>
@@ -9749,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>56</v>
       </c>
@@ -9862,7 +9876,7 @@
         <v>70491.009999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -9975,12 +9989,12 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>13</v>
       </c>
@@ -10093,7 +10107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>50</v>
       </c>
@@ -10206,7 +10220,7 @@
         <v>68360.490000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>51</v>
       </c>
@@ -10319,7 +10333,7 @@
         <v>1286.3499999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>52</v>
       </c>
@@ -10432,7 +10446,7 @@
         <v>7054.82</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>53</v>
       </c>
@@ -10545,7 +10559,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>54</v>
       </c>
@@ -10658,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>55</v>
       </c>
@@ -10771,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>56</v>
       </c>
@@ -10884,7 +10898,7 @@
         <v>645.91</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>57</v>
       </c>
@@ -10997,12 +11011,12 @@
         <v>97.13</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>13</v>
       </c>
@@ -11115,7 +11129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>50</v>
       </c>
@@ -11228,7 +11242,7 @@
         <v>3934.92</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>51</v>
       </c>
@@ -11341,7 +11355,7 @@
         <v>5535.87</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>52</v>
       </c>
@@ -11454,7 +11468,7 @@
         <v>573.79</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>53</v>
       </c>
@@ -11567,7 +11581,7 @@
         <v>204.57</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>54</v>
       </c>
@@ -11680,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>55</v>
       </c>
@@ -11793,7 +11807,7 @@
         <v>3264.42</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>56</v>
       </c>
@@ -11906,7 +11920,7 @@
         <v>13826.63</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>57</v>
       </c>
@@ -12019,12 +12033,12 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>13</v>
       </c>
@@ -12137,7 +12151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>50</v>
       </c>
@@ -12250,7 +12264,7 @@
         <v>378.56</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>51</v>
       </c>
@@ -12363,7 +12377,7 @@
         <v>31.38</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>52</v>
       </c>
@@ -12476,7 +12490,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -12589,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>54</v>
       </c>
@@ -12702,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>55</v>
       </c>
@@ -12815,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>56</v>
       </c>
@@ -12928,7 +12942,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>57</v>
       </c>
@@ -13041,12 +13055,12 @@
         <v>94.08</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>13</v>
       </c>
@@ -13159,7 +13173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>50</v>
       </c>
@@ -13272,7 +13286,7 @@
         <v>301.67</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>51</v>
       </c>
@@ -13385,7 +13399,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>52</v>
       </c>
@@ -13498,7 +13512,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>53</v>
       </c>
@@ -13611,7 +13625,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>54</v>
       </c>
@@ -13724,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>55</v>
       </c>
@@ -13837,7 +13851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>56</v>
       </c>
@@ -13950,7 +13964,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>57</v>
       </c>
@@ -14063,12 +14077,12 @@
         <v>216.74</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>13</v>
       </c>
@@ -14181,7 +14195,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>50</v>
       </c>
@@ -14294,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>51</v>
       </c>
@@ -14407,7 +14421,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>52</v>
       </c>
@@ -14520,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>53</v>
       </c>
@@ -14633,7 +14647,7 @@
         <v>39.71</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>54</v>
       </c>
@@ -14746,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>55</v>
       </c>
@@ -14859,7 +14873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>56</v>
       </c>
@@ -14972,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>57</v>
       </c>
@@ -15091,23 +15105,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -15115,7 +15129,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -15123,7 +15137,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -15131,7 +15145,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -15139,7 +15153,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -15147,7 +15161,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -15155,7 +15169,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -15163,7 +15177,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -15171,27 +15185,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
@@ -15202,7 +15216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -15212,14 +15226,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>82</v>
       </c>

--- a/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
+++ b/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/elec/fotcamrbtpf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/fotcamrbtpf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07399F2B-1D92-6247-841A-4D2A392A8D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3485C50-735B-CB44-8BD2-4CFED7C56521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
